--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H2">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I2">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J2">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>377.981912690124</v>
+        <v>4.571811036434889</v>
       </c>
       <c r="R2">
-        <v>377.981912690124</v>
+        <v>41.146299327914</v>
       </c>
       <c r="S2">
-        <v>0.03345876747223667</v>
+        <v>0.0002546907011520247</v>
       </c>
       <c r="T2">
-        <v>0.03345876747223667</v>
+        <v>0.0002766985245520506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H3">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I3">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J3">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>500.2850979394712</v>
+        <v>837.343010846562</v>
       </c>
       <c r="R3">
-        <v>500.2850979394712</v>
+        <v>7536.087097619058</v>
       </c>
       <c r="S3">
-        <v>0.04428498348677539</v>
+        <v>0.04664748320472183</v>
       </c>
       <c r="T3">
-        <v>0.04428498348677539</v>
+        <v>0.05067829221259528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H4">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I4">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J4">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>24.05608066510326</v>
+        <v>779.8887139771763</v>
       </c>
       <c r="R4">
-        <v>24.05608066510326</v>
+        <v>7018.998425794586</v>
       </c>
       <c r="S4">
-        <v>0.002129432076626689</v>
+        <v>0.04344676580034035</v>
       </c>
       <c r="T4">
-        <v>0.002129432076626689</v>
+        <v>0.04720100081838852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.5342388188646</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H5">
-        <v>53.5342388188646</v>
+        <v>37.261862</v>
       </c>
       <c r="I5">
-        <v>0.533659720844985</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J5">
-        <v>0.533659720844985</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>2525.424859062673</v>
+        <v>38.30905694902733</v>
       </c>
       <c r="R5">
-        <v>2525.424859062673</v>
+        <v>229.854341694164</v>
       </c>
       <c r="S5">
-        <v>0.2235493294549695</v>
+        <v>0.002134156573196674</v>
       </c>
       <c r="T5">
-        <v>0.2235493294549695</v>
+        <v>0.001545712694641072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H6">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I6">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J6">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>3342.573759582851</v>
+        <v>21.14386635224889</v>
       </c>
       <c r="R6">
-        <v>3342.573759582851</v>
+        <v>190.29479717024</v>
       </c>
       <c r="S6">
-        <v>0.2958829362620046</v>
+        <v>0.001177902171240727</v>
       </c>
       <c r="T6">
-        <v>0.2958829362620046</v>
+        <v>0.001279684697457495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H7">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J7">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>160.7268022189042</v>
+        <v>3872.572285081921</v>
       </c>
       <c r="R7">
-        <v>160.7268022189042</v>
+        <v>34853.15056573728</v>
       </c>
       <c r="S7">
-        <v>0.01422745512801095</v>
+        <v>0.2157368584766659</v>
       </c>
       <c r="T7">
-        <v>0.01422745512801095</v>
+        <v>0.2343786803443469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.53219526823085</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H8">
-        <v>5.53219526823085</v>
+        <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.05514806687535596</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J8">
-        <v>0.05514806687535596</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>260.9758495465126</v>
+        <v>3606.855709158863</v>
       </c>
       <c r="R8">
-        <v>260.9758495465126</v>
+        <v>32461.70138242976</v>
       </c>
       <c r="S8">
-        <v>0.02310145002362791</v>
+        <v>0.2009340723400078</v>
       </c>
       <c r="T8">
-        <v>0.02310145002362791</v>
+        <v>0.2182967854626489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.53219526823085</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H9">
-        <v>5.53219526823085</v>
+        <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.05514806687535596</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J9">
-        <v>0.05514806687535596</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>345.4195136507787</v>
+        <v>177.1730226283734</v>
       </c>
       <c r="R9">
-        <v>345.4195136507787</v>
+        <v>1063.03813577024</v>
       </c>
       <c r="S9">
-        <v>0.03057636040137552</v>
+        <v>0.009870119521307254</v>
       </c>
       <c r="T9">
-        <v>0.03057636040137552</v>
+        <v>0.007148664363860301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H10">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I10">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J10">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>16.60940875094628</v>
+        <v>6.119650251957555</v>
       </c>
       <c r="R10">
-        <v>16.60940875094628</v>
+        <v>55.076852267618</v>
       </c>
       <c r="S10">
-        <v>0.001470256450352538</v>
+        <v>0.0003409191677116317</v>
       </c>
       <c r="T10">
-        <v>0.001470256450352538</v>
+        <v>0.0003703779928777807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.45288857161591</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H11">
-        <v>4.45288857161591</v>
+        <v>49.877294</v>
       </c>
       <c r="I11">
-        <v>0.04438892425691857</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J11">
-        <v>0.04438892425691857</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>210.0606217909311</v>
+        <v>1120.835119051194</v>
       </c>
       <c r="R11">
-        <v>210.0606217909311</v>
+        <v>10087.51607146075</v>
       </c>
       <c r="S11">
-        <v>0.01859445985008863</v>
+        <v>0.06244052522555026</v>
       </c>
       <c r="T11">
-        <v>0.01859445985008863</v>
+        <v>0.06783601098907847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.45288857161591</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H12">
-        <v>4.45288857161591</v>
+        <v>49.877294</v>
       </c>
       <c r="I12">
-        <v>0.04438892425691857</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J12">
-        <v>0.04438892425691857</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>278.029702527213</v>
+        <v>1043.929009084987</v>
       </c>
       <c r="R12">
-        <v>278.029702527213</v>
+        <v>9395.361081764882</v>
       </c>
       <c r="S12">
-        <v>0.02461104845209756</v>
+        <v>0.05815616812634648</v>
       </c>
       <c r="T12">
-        <v>0.02461104845209756</v>
+        <v>0.06318144259438793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.45288857161591</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H13">
-        <v>4.45288857161591</v>
+        <v>49.877294</v>
       </c>
       <c r="I13">
-        <v>0.04438892425691857</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J13">
-        <v>0.04438892425691857</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.0023178766533</v>
+        <v>3.084311</v>
       </c>
       <c r="N13">
-        <v>3.0023178766533</v>
+        <v>6.168622</v>
       </c>
       <c r="O13">
-        <v>0.02666016296954829</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P13">
-        <v>0.02666016296954829</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q13">
-        <v>13.36898696130762</v>
+        <v>51.27902884481133</v>
       </c>
       <c r="R13">
-        <v>13.36898696130762</v>
+        <v>307.674173068868</v>
       </c>
       <c r="S13">
-        <v>0.001183415954732384</v>
+        <v>0.002856699830066544</v>
       </c>
       <c r="T13">
-        <v>0.001183415954732384</v>
+        <v>0.0020690315076081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.7834816170495</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H14">
-        <v>28.7834816170495</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I14">
-        <v>0.2869301049871016</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J14">
-        <v>0.2869301049871016</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N14">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O14">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P14">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q14">
-        <v>1357.832325813425</v>
+        <v>6.861317258731112</v>
       </c>
       <c r="R14">
-        <v>1357.832325813425</v>
+        <v>61.75185532858001</v>
       </c>
       <c r="S14">
-        <v>0.1201946297703486</v>
+        <v>0.0003822366430996307</v>
       </c>
       <c r="T14">
-        <v>0.1201946297703486</v>
+        <v>0.0004152657113000206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.7834816170495</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H15">
-        <v>28.7834816170495</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I15">
-        <v>0.2869301049871016</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J15">
-        <v>0.2869301049871016</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N15">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O15">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P15">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q15">
-        <v>1797.184614656029</v>
+        <v>1256.67399768114</v>
       </c>
       <c r="R15">
-        <v>1797.184614656029</v>
+        <v>11310.06597913026</v>
       </c>
       <c r="S15">
-        <v>0.1590858718569273</v>
+        <v>0.07000796381088263</v>
       </c>
       <c r="T15">
-        <v>0.1590858718569273</v>
+        <v>0.07605735193999869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.64071333333333</v>
+      </c>
+      <c r="H16">
+        <v>55.92214000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1387974830074432</v>
+      </c>
+      <c r="J16">
+        <v>0.149631080253504</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>1170.447302055158</v>
+      </c>
+      <c r="R16">
+        <v>10534.02571849642</v>
+      </c>
+      <c r="S16">
+        <v>0.06520436685729353</v>
+      </c>
+      <c r="T16">
+        <v>0.07083867617528178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.64071333333333</v>
+      </c>
+      <c r="H17">
+        <v>55.92214000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1387974830074432</v>
+      </c>
+      <c r="J17">
+        <v>0.149631080253504</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>57.49375718184667</v>
+      </c>
+      <c r="R17">
+        <v>344.96254309108</v>
+      </c>
+      <c r="S17">
+        <v>0.003202915696167429</v>
+      </c>
+      <c r="T17">
+        <v>0.002319786426923466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>28.7834816170495</v>
-      </c>
-      <c r="H16">
-        <v>28.7834816170495</v>
-      </c>
-      <c r="I16">
-        <v>0.2869301049871016</v>
-      </c>
-      <c r="J16">
-        <v>0.2869301049871016</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q16">
-        <v>86.41716141118934</v>
-      </c>
-      <c r="R16">
-        <v>86.41716141118934</v>
-      </c>
-      <c r="S16">
-        <v>0.00764960335982573</v>
-      </c>
-      <c r="T16">
-        <v>0.00764960335982573</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>29.1711175</v>
+      </c>
+      <c r="H18">
+        <v>58.342235</v>
+      </c>
+      <c r="I18">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J18">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>10.73737299534083</v>
+      </c>
+      <c r="R18">
+        <v>64.42423797204501</v>
+      </c>
+      <c r="S18">
+        <v>0.0005981675609337316</v>
+      </c>
+      <c r="T18">
+        <v>0.0004332368131138752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>29.1711175</v>
+      </c>
+      <c r="H19">
+        <v>58.342235</v>
+      </c>
+      <c r="I19">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J19">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>1966.587017890478</v>
+      </c>
+      <c r="R19">
+        <v>11799.52210734287</v>
+      </c>
+      <c r="S19">
+        <v>0.1095564585831124</v>
+      </c>
+      <c r="T19">
+        <v>0.0793488214213746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>29.1711175</v>
+      </c>
+      <c r="H20">
+        <v>58.342235</v>
+      </c>
+      <c r="I20">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J20">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>1831.649635143201</v>
+      </c>
+      <c r="R20">
+        <v>10989.89781085921</v>
+      </c>
+      <c r="S20">
+        <v>0.1020392413688326</v>
+      </c>
+      <c r="T20">
+        <v>0.07390430145389985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29.1711175</v>
+      </c>
+      <c r="H21">
+        <v>58.342235</v>
+      </c>
+      <c r="I21">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J21">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>89.9727985875425</v>
+      </c>
+      <c r="R21">
+        <v>359.89119435017</v>
+      </c>
+      <c r="S21">
+        <v>0.005012288341370397</v>
+      </c>
+      <c r="T21">
+        <v>0.002420177855664665</v>
       </c>
     </row>
   </sheetData>
